--- a/Family League.xlsx
+++ b/Family League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="26">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -58,25 +58,28 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>4 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 4 - 0</t>
-  </si>
-  <si>
-    <t>1 - 5 - 0</t>
-  </si>
-  <si>
-    <t>0 - 6 - 0</t>
-  </si>
-  <si>
-    <t>3 - 3 - 0</t>
-  </si>
-  <si>
-    <t>5 - 1 - 0</t>
-  </si>
-  <si>
-    <t>6 - 0 - 0</t>
+    <t>5 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 5 - 0</t>
+  </si>
+  <si>
+    <t>3 - 4 - 0</t>
+  </si>
+  <si>
+    <t>1 - 6 - 0</t>
+  </si>
+  <si>
+    <t>4 - 3 - 0</t>
+  </si>
+  <si>
+    <t>0 - 7 - 0</t>
+  </si>
+  <si>
+    <t>7 - 0 - 0</t>
+  </si>
+  <si>
+    <t>6 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -507,31 +510,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -545,37 +548,37 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -583,40 +586,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -624,28 +627,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -654,10 +657,10 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -668,37 +671,37 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -706,28 +709,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -736,10 +739,10 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -750,26 +753,26 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
@@ -777,10 +780,10 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -794,31 +797,31 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
@@ -841,16 +844,16 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -859,10 +862,10 @@
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +873,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
@@ -911,34 +914,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -952,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -961,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -976,7 +979,7 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
@@ -1006,10 +1009,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1020,10 +1023,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1034,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1048,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>2.25</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1062,10 +1065,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1073,13 +1076,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1087,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1101,13 +1104,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3.25</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1115,13 +1118,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>3.416666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1129,13 +1132,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1146,10 +1149,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>3.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1160,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>3.666666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1174,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>3.75</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1198,13 +1201,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1215,13 +1218,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4.333333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D2">
-        <v>0.333333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1229,13 +1232,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>4.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1246,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1263,16 +1266,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D5">
-        <v>-1.333333333333333</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1280,16 +1283,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1297,16 +1300,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0.3333333333333335</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1314,16 +1317,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2.916666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
-        <v>-0.08333333333333348</v>
+        <v>2.5</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1331,13 +1334,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>2.916666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D9">
-        <v>1.916666666666667</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -1348,13 +1351,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>-0.3333333333333335</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -1365,16 +1368,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2.083333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.9166666666666665</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1385,13 +1388,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>1.416666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D12">
-        <v>0.4166666666666667</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1402,13 +1405,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>-0.08333333333333337</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +1432,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1443,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1457,10 +1460,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1471,7 +1474,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1485,10 +1488,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1496,13 +1499,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1524,10 +1527,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1538,13 +1541,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1555,10 +1558,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1569,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1583,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1600,7 +1603,7 @@
         <v>-31</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Family League.xlsx
+++ b/Family League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="29">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -58,28 +58,31 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>5 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 5 - 0</t>
-  </si>
-  <si>
-    <t>3 - 4 - 0</t>
-  </si>
-  <si>
-    <t>1 - 6 - 0</t>
-  </si>
-  <si>
-    <t>4 - 3 - 0</t>
-  </si>
-  <si>
-    <t>0 - 7 - 0</t>
-  </si>
-  <si>
-    <t>7 - 0 - 0</t>
-  </si>
-  <si>
-    <t>6 - 1 - 0</t>
+    <t>6 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 6 - 0</t>
+  </si>
+  <si>
+    <t>3 - 5 - 0</t>
+  </si>
+  <si>
+    <t>4 - 4 - 0</t>
+  </si>
+  <si>
+    <t>5 - 3 - 0</t>
+  </si>
+  <si>
+    <t>1 - 7 - 0</t>
+  </si>
+  <si>
+    <t>8 - 0 - 0</t>
+  </si>
+  <si>
+    <t>7 - 1 - 0</t>
+  </si>
+  <si>
+    <t>0 - 8 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -95,6 +98,12 @@
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
+  </si>
+  <si>
+    <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -513,7 +522,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -551,7 +560,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -560,16 +569,16 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -578,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -586,19 +595,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -610,10 +619,10 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -627,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -636,25 +645,25 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -668,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -677,25 +686,25 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -715,10 +724,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -727,13 +736,13 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -750,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -762,28 +771,28 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -824,7 +833,7 @@
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -835,25 +844,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -862,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -873,10 +882,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -888,25 +897,25 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -914,16 +923,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -935,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -944,10 +953,10 @@
         <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -958,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -967,28 +976,28 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1009,10 +1018,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1023,10 +1032,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1034,13 +1043,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2.916666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1048,10 +1057,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3.083333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1062,13 +1071,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1076,13 +1085,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.416666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1090,13 +1099,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1104,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3.583333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1118,13 +1127,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3.583333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1132,13 +1141,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3.916666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1146,13 +1155,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1163,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>4.25</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1177,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>4.416666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1201,13 +1210,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1215,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.583333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D2">
-        <v>0.583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1232,16 +1241,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4.583333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D3">
-        <v>-0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1249,13 +1258,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1269,13 +1278,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4.333333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.666666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1286,13 +1295,13 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1303,13 +1312,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1320,13 +1329,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="D8">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1334,16 +1343,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3.083333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D9">
-        <v>0.08333333333333348</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1351,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1371,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>2.916666666666667</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>-0.08333333333333348</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1388,13 +1397,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2.166666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D12">
-        <v>0.1666666666666665</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1405,13 +1414,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1421,52 +1430,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1474,41 +1492,50 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1516,13 +1543,16 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1530,13 +1560,16 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1544,13 +1577,16 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1558,13 +1594,16 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1572,13 +1611,16 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1586,13 +1628,16 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1600,10 +1645,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>-31</v>
+        <v>-33</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Family League.xlsx
+++ b/Family League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="38">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -58,31 +58,31 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>6 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 6 - 0</t>
-  </si>
-  <si>
-    <t>3 - 5 - 0</t>
-  </si>
-  <si>
-    <t>4 - 4 - 0</t>
-  </si>
-  <si>
-    <t>5 - 3 - 0</t>
-  </si>
-  <si>
-    <t>1 - 7 - 0</t>
-  </si>
-  <si>
-    <t>8 - 0 - 0</t>
-  </si>
-  <si>
-    <t>7 - 1 - 0</t>
-  </si>
-  <si>
-    <t>0 - 8 - 0</t>
+    <t>6 - 3 - 0</t>
+  </si>
+  <si>
+    <t>2 - 7 - 0</t>
+  </si>
+  <si>
+    <t>3 - 6 - 0</t>
+  </si>
+  <si>
+    <t>5 - 4 - 0</t>
+  </si>
+  <si>
+    <t>4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>1 - 8 - 0</t>
+  </si>
+  <si>
+    <t>7 - 2 - 0</t>
+  </si>
+  <si>
+    <t>8 - 1 - 0</t>
+  </si>
+  <si>
+    <t>0 - 9 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -103,7 +103,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>0</t>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+7</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-10</t>
   </si>
 </sst>
 </file>
@@ -516,37 +543,37 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -560,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -569,19 +596,19 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -601,31 +628,31 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -639,13 +666,13 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -660,16 +687,16 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -683,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -695,19 +722,19 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -718,40 +745,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -803,37 +830,37 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -841,37 +868,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -882,13 +909,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -897,25 +924,25 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -923,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -935,16 +962,16 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -953,10 +980,10 @@
         <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -970,31 +997,31 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
         <v>16</v>
@@ -1032,10 +1059,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1046,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>3.166666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1057,13 +1084,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1071,10 +1098,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>3.666666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1085,10 +1112,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3.75</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1099,13 +1126,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3.75</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1113,13 +1140,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>4.083333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1130,10 +1157,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1141,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1155,13 +1182,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1169,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>4.916666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1186,10 +1213,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1224,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1241,16 +1268,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1261,10 +1288,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>5.166666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D4">
-        <v>2.166666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1278,13 +1305,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.083333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>1.083333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1295,10 +1322,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1309,16 +1336,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4.333333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D7">
-        <v>0.333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1326,16 +1353,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3.75</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D8">
-        <v>0.75</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1346,13 +1373,13 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>3.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D9">
-        <v>0.6666666666666665</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1363,13 +1390,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>3.083333333333333</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.08333333333333348</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1380,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1397,10 +1424,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2.666666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D12">
-        <v>0.6666666666666665</v>
+        <v>0.9166666666666665</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1455,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -1472,16 +1499,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1492,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1506,16 +1533,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1523,16 +1550,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1543,13 +1570,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1557,16 +1584,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1574,16 +1601,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1591,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>-15</v>
@@ -1600,7 +1627,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1608,16 +1635,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1628,13 +1655,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1645,13 +1672,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>-33</v>
+        <v>-43</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Family League.xlsx
+++ b/Family League.xlsx
@@ -58,31 +58,31 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>6 - 3 - 0</t>
-  </si>
-  <si>
-    <t>2 - 7 - 0</t>
-  </si>
-  <si>
-    <t>3 - 6 - 0</t>
-  </si>
-  <si>
-    <t>5 - 4 - 0</t>
-  </si>
-  <si>
-    <t>4 - 5 - 0</t>
-  </si>
-  <si>
-    <t>1 - 8 - 0</t>
-  </si>
-  <si>
-    <t>7 - 2 - 0</t>
-  </si>
-  <si>
-    <t>8 - 1 - 0</t>
-  </si>
-  <si>
-    <t>0 - 9 - 0</t>
+    <t>7 - 3 - 0</t>
+  </si>
+  <si>
+    <t>3 - 7 - 0</t>
+  </si>
+  <si>
+    <t>4 - 6 - 0</t>
+  </si>
+  <si>
+    <t>6 - 4 - 0</t>
+  </si>
+  <si>
+    <t>5 - 5 - 0</t>
+  </si>
+  <si>
+    <t>1 - 9 - 0</t>
+  </si>
+  <si>
+    <t>8 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 8 - 0</t>
+  </si>
+  <si>
+    <t>9 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -103,34 +103,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+5</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>+7</t>
+    <t>+11</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>+9</t>
   </si>
   <si>
     <t>-8</t>
   </si>
   <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
     <t>+2</t>
   </si>
   <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-10</t>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-4</t>
   </si>
 </sst>
 </file>
@@ -564,16 +564,16 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
@@ -646,16 +646,16 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -678,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -687,16 +687,16 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -710,34 +710,34 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -751,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -760,25 +760,25 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -801,19 +801,19 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -827,40 +827,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -871,10 +871,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -883,25 +883,25 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -909,40 +909,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -977,13 +977,13 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1070,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3.583333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.833333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1098,13 +1098,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>4.083333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1112,13 +1112,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4.166666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1140,13 +1140,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>4.583333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1157,10 +1157,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>4.666666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1171,10 +1171,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1182,13 +1182,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>5.333333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1196,13 +1196,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>5.416666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1213,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1268,16 +1268,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>6.083333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D3">
-        <v>0.08333333333333304</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1285,16 +1285,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>5.583333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D4">
-        <v>2.583333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1302,16 +1302,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="D5">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1319,13 +1319,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5.333333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D6">
-        <v>0.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1339,10 +1339,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>4.75</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D7">
-        <v>0.75</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1353,16 +1353,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4.583333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D8">
-        <v>0.583333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1370,13 +1370,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4.166666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D9">
-        <v>1.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1390,13 +1390,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>3.083333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D11">
-        <v>2.083333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -1424,10 +1424,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2.916666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D12">
-        <v>0.9166666666666665</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1441,13 +1441,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1.75</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D13">
-        <v>0.75</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>26</v>
@@ -1516,16 +1516,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1533,16 +1533,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1550,16 +1550,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1573,10 +1573,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1590,7 +1590,7 @@
         <v>-8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1604,10 +1604,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -1618,10 +1618,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1635,16 +1635,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1652,16 +1652,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1672,10 +1672,10 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>

--- a/Family League.xlsx
+++ b/Family League.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6CE126AB75B868DB3EFF74D26EB1F99F5C1853D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E51569A1-2B75-423F-8118-FC2CAAEF5EE1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7095" yWindow="6795" windowWidth="17250" windowHeight="8910" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -136,8 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +206,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -246,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +292,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +344,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,14 +537,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -535,7 +585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,7 +667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -658,7 +708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -699,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,7 +790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,7 +831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,7 +872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,7 +913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,7 +954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,7 +995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,14 +1083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1065,7 +1115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1079,7 +1129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1093,7 +1143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1107,7 +1157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1121,7 +1171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1135,7 +1185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1149,7 +1199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1177,7 +1227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1191,7 +1241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1205,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1225,14 +1275,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1257,13 +1307,13 @@
         <v>6.833333333333333</v>
       </c>
       <c r="D2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1280,7 +1330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1291,13 +1341,13 @@
         <v>6.333333333333333</v>
       </c>
       <c r="D4">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1314,7 +1364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1331,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1348,7 +1398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1365,7 +1415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1376,13 +1426,13 @@
         <v>4.666666666666667</v>
       </c>
       <c r="D9">
-        <v>0.666666666666667</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1393,13 +1443,13 @@
         <v>4.416666666666667</v>
       </c>
       <c r="D10">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1416,7 +1466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1433,7 +1483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1444,7 +1494,7 @@
         <v>1.916666666666667</v>
       </c>
       <c r="D13">
-        <v>0.9166666666666667</v>
+        <v>0.91666666666666674</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1456,14 +1506,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1477,7 +1530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1494,7 +1547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1511,7 +1564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1528,7 +1581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1545,7 +1598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1562,7 +1615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1579,7 +1632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1596,7 +1649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1613,7 +1666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1630,7 +1683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1647,7 +1700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1664,7 +1717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>

--- a/Family League.xlsx
+++ b/Family League.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6CE126AB75B868DB3EFF74D26EB1F99F5C1853D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E51569A1-2B75-423F-8118-FC2CAAEF5EE1}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="6795" windowWidth="17250" windowHeight="8910" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="37">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -58,37 +52,40 @@
     <t>Golden Receivers</t>
   </si>
   <si>
-    <t>DadBod 69ers</t>
+    <t>Your Dad</t>
   </si>
   <si>
     <t>Teams</t>
   </si>
   <si>
-    <t>7 - 3 - 0</t>
-  </si>
-  <si>
-    <t>3 - 7 - 0</t>
-  </si>
-  <si>
-    <t>4 - 6 - 0</t>
-  </si>
-  <si>
-    <t>6 - 4 - 0</t>
-  </si>
-  <si>
-    <t>5 - 5 - 0</t>
-  </si>
-  <si>
-    <t>1 - 9 - 0</t>
-  </si>
-  <si>
-    <t>8 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 8 - 0</t>
-  </si>
-  <si>
-    <t>9 - 1 - 0</t>
+    <t>7 - 4 - 0</t>
+  </si>
+  <si>
+    <t>4 - 7 - 0</t>
+  </si>
+  <si>
+    <t>3 - 8 - 0</t>
+  </si>
+  <si>
+    <t>5 - 6 - 0</t>
+  </si>
+  <si>
+    <t>6 - 5 - 0</t>
+  </si>
+  <si>
+    <t>1 - 10 - 0</t>
+  </si>
+  <si>
+    <t>8 - 3 - 0</t>
+  </si>
+  <si>
+    <t>9 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 9 - 0</t>
+  </si>
+  <si>
+    <t>10 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -109,41 +106,35 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+11</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
-    <t>+9</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>+7</t>
   </si>
   <si>
     <t>-3</t>
   </si>
   <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-4</t>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,14 +197,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -260,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,27 +275,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,24 +309,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,14 +484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -585,7 +532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,13 +543,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -614,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -623,10 +570,10 @@
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -634,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -643,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -652,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -664,179 +611,179 @@
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
       <c r="M6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -845,25 +792,25 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -872,59 +819,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -933,36 +880,36 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -971,31 +918,31 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,66 +950,66 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
       <c r="I12" t="s">
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1074,7 +1021,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1083,25 +1030,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1109,13 +1056,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1123,13 +1070,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3.916666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1137,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.666666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1151,69 +1098,69 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.75</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.083333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5.083333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>5.083333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1221,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1235,13 +1182,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.75</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1249,13 +1196,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>5.833333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1263,10 +1210,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1275,62 +1222,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>6.833333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D2">
-        <v>0.83333333333333304</v>
+        <v>2.25</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.333333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D3">
-        <v>2.333333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1338,16 +1285,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>6.333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D4">
-        <v>0.33333333333333298</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1355,16 +1302,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>6.25</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1372,16 +1319,16 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>5.833333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D6">
-        <v>2.833333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1389,16 +1336,16 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>5.333333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D7">
-        <v>1.333333333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1406,67 +1353,67 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>4.833333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D8">
-        <v>1.833333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0.66666666666666696</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4.416666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D10">
-        <v>0.41666666666666702</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>3.916666666666667</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D11">
-        <v>2.916666666666667</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1474,16 +1421,16 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>3.333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D12">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1491,13 +1438,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1.916666666666667</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0.91666666666666674</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1506,31 +1453,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1538,84 +1482,84 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1623,16 +1567,16 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1640,67 +1584,67 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>-14</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1708,16 +1652,16 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1725,13 +1669,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>-47</v>
+        <v>-54</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Family League.xlsx
+++ b/Family League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="36">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -52,40 +52,40 @@
     <t>Golden Receivers</t>
   </si>
   <si>
-    <t>Your Dad</t>
+    <t>DadBods 69ers</t>
   </si>
   <si>
     <t>Teams</t>
   </si>
   <si>
-    <t>7 - 4 - 0</t>
-  </si>
-  <si>
-    <t>4 - 7 - 0</t>
-  </si>
-  <si>
-    <t>3 - 8 - 0</t>
-  </si>
-  <si>
-    <t>5 - 6 - 0</t>
-  </si>
-  <si>
-    <t>6 - 5 - 0</t>
-  </si>
-  <si>
-    <t>1 - 10 - 0</t>
-  </si>
-  <si>
-    <t>8 - 3 - 0</t>
-  </si>
-  <si>
-    <t>9 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 9 - 0</t>
-  </si>
-  <si>
-    <t>10 - 1 - 0</t>
+    <t>7 - 5 - 0</t>
+  </si>
+  <si>
+    <t>5 - 7 - 0</t>
+  </si>
+  <si>
+    <t>3 - 9 - 0</t>
+  </si>
+  <si>
+    <t>6 - 6 - 0</t>
+  </si>
+  <si>
+    <t>4 - 8 - 0</t>
+  </si>
+  <si>
+    <t>8 - 4 - 0</t>
+  </si>
+  <si>
+    <t>1 - 11 - 0</t>
+  </si>
+  <si>
+    <t>9 - 3 - 0</t>
+  </si>
+  <si>
+    <t>10 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 10 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -106,28 +106,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
     <t>-1</t>
   </si>
   <si>
-    <t>+7</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
     <t>+1</t>
   </si>
   <si>
-    <t>+5</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>-7</t>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>+4</t>
   </si>
 </sst>
 </file>
@@ -540,37 +537,37 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -584,7 +581,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -593,25 +590,25 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -622,13 +619,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -637,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -663,19 +660,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -690,10 +687,10 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -710,13 +707,13 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -734,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -742,40 +739,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -786,25 +783,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -813,10 +810,10 @@
         <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -824,13 +821,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -839,25 +836,25 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -865,40 +862,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
         <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -912,10 +909,10 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -924,7 +921,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -933,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -947,40 +944,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -988,40 +985,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1056,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>4.166666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1070,10 +1067,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1084,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.916666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1098,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1112,10 +1109,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.166666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1126,7 +1123,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1140,10 +1137,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5.583333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1151,13 +1148,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>5.833333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1165,10 +1162,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1179,13 +1176,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>6.083333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1193,13 +1190,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1210,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6.666666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1251,10 +1248,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>7.25</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D2">
-        <v>2.25</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1265,16 +1262,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>6.833333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D3">
-        <v>0.833333333333333</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1285,13 +1282,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>6.75</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1299,13 +1296,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.666666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D5">
-        <v>0.666666666666667</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1319,10 +1316,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>6.416666666666667</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D6">
-        <v>2.416666666666667</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1333,16 +1330,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>6.166666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>1.166666666666667</v>
+        <v>-1.5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1350,16 +1347,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>5.583333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D8">
-        <v>1.583333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1367,16 +1364,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1384,16 +1381,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>4.916666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D10">
-        <v>2.916666666666667</v>
+        <v>-1.25</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1401,16 +1398,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>4.916666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D11">
-        <v>0.916666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1421,13 +1418,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1441,10 +1438,10 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1482,10 +1479,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
@@ -1499,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1516,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1533,13 +1530,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1550,10 +1547,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1567,7 +1564,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1584,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1601,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1615,16 +1612,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1632,16 +1629,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1652,13 +1649,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1669,13 +1666,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>-54</v>
+        <v>-55</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Family League.xlsx
+++ b/Family League.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_263587A1F7B866B3475946D2E191EE28F41D84D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C203E3C7-2BDB-4178-82D1-0BC7CD4CE76A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -106,32 +112,32 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>+4</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +200,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -240,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +286,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +338,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,14 +531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -529,7 +579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -611,7 +661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -652,7 +702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -693,7 +743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -734,7 +784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,7 +866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -898,7 +948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -939,7 +989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,7 +1030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,14 +1077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1059,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1073,7 +1123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1087,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1101,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1129,7 +1179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1143,7 +1193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1157,7 +1207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1171,7 +1221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1185,7 +1235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1199,7 +1249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1219,14 +1269,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1251,13 +1301,13 @@
         <v>7.666666666666667</v>
       </c>
       <c r="D2">
-        <v>0.666666666666667</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1268,13 +1318,13 @@
         <v>7.416666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.583333333333333</v>
+        <v>-0.58333333333333304</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1285,13 +1335,13 @@
         <v>7.416666666666667</v>
       </c>
       <c r="D4">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1302,13 +1352,13 @@
         <v>7.083333333333333</v>
       </c>
       <c r="D5">
-        <v>0.08333333333333304</v>
+        <v>8.3333333333333037E-2</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1319,13 +1369,13 @@
         <v>6.583333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.416666666666667</v>
+        <v>-0.41666666666666702</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1342,7 +1392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1359,7 +1409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1370,13 +1420,13 @@
         <v>5.916666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333304</v>
+        <v>-8.3333333333333037E-2</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1393,7 +1443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1404,13 +1454,13 @@
         <v>5.416666666666667</v>
       </c>
       <c r="D11">
-        <v>0.416666666666667</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1427,7 +1477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1450,14 +1500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1471,7 +1523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1488,7 +1540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1505,7 +1557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1519,10 +1571,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1536,10 +1588,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1553,10 +1605,10 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1570,10 +1622,10 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1587,10 +1639,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1604,10 +1656,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1621,10 +1673,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1638,10 +1690,10 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1655,10 +1707,10 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1672,7 +1724,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Family League.xlsx
+++ b/Family League.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_263587A1F7B866B3475946D2E191EE28F41D84D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C203E3C7-2BDB-4178-82D1-0BC7CD4CE76A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="41">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -64,34 +58,37 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>7 - 5 - 0</t>
-  </si>
-  <si>
-    <t>5 - 7 - 0</t>
-  </si>
-  <si>
-    <t>3 - 9 - 0</t>
-  </si>
-  <si>
-    <t>6 - 6 - 0</t>
-  </si>
-  <si>
-    <t>4 - 8 - 0</t>
-  </si>
-  <si>
-    <t>8 - 4 - 0</t>
-  </si>
-  <si>
-    <t>1 - 11 - 0</t>
-  </si>
-  <si>
-    <t>9 - 3 - 0</t>
-  </si>
-  <si>
-    <t>10 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 10 - 0</t>
+    <t>7 - 6 - 0</t>
+  </si>
+  <si>
+    <t>6 - 7 - 0</t>
+  </si>
+  <si>
+    <t>5 - 8 - 0</t>
+  </si>
+  <si>
+    <t>3 - 10 - 0</t>
+  </si>
+  <si>
+    <t>4 - 9 - 0</t>
+  </si>
+  <si>
+    <t>8 - 5 - 0</t>
+  </si>
+  <si>
+    <t>9 - 4 - 0</t>
+  </si>
+  <si>
+    <t>1 - 12 - 0</t>
+  </si>
+  <si>
+    <t>10 - 3 - 0</t>
+  </si>
+  <si>
+    <t>2 - 11 - 0</t>
+  </si>
+  <si>
+    <t>11 - 2 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -112,32 +109,44 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓2</t>
   </si>
   <si>
     <t>↓4</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,14 +209,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -254,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,27 +287,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,24 +321,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,14 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -579,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,37 +555,37 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,81 +593,81 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -710,22 +675,22 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -734,27 +699,27 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -766,77 +731,77 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
       <c r="M6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>15</v>
       </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
       <c r="M7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -851,22 +816,22 @@
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -883,13 +848,13 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -898,21 +863,21 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -921,19 +886,19 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
@@ -942,13 +907,13 @@
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -956,10 +921,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -968,19 +933,19 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -989,48 +954,48 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1044,22 +1009,22 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
         <v>18</v>
@@ -1068,7 +1033,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1077,67 +1042,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>4.583333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1145,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.25</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1159,97 +1124,97 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.583333333333333</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>6.583333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>6.583333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>6.666666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>6.75</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1257,10 +1222,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>7.5</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1269,28 +1234,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1298,16 +1263,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>7.666666666666667</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D2">
-        <v>0.66666666666666696</v>
+        <v>0.6666666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1315,16 +1280,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>7.416666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D3">
-        <v>-0.58333333333333304</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1332,16 +1297,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7.416666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D4">
-        <v>0.41666666666666702</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1349,84 +1314,84 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.083333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>8.3333333333333037E-2</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>6.583333333333333</v>
+        <v>7.25</v>
       </c>
       <c r="D6">
-        <v>-0.41666666666666702</v>
+        <v>-1.75</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D7">
-        <v>-1.5</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D8">
-        <v>2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5.916666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D9">
-        <v>-8.3333333333333037E-2</v>
+        <v>2.75</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1434,16 +1399,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5.75</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D10">
-        <v>-1.25</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1451,16 +1416,16 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>5.416666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D11">
-        <v>0.41666666666666702</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1468,16 +1433,16 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1500,64 +1465,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1565,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1582,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1591,7 +1554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1605,10 +1568,10 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1616,67 +1579,67 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1684,16 +1647,16 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1701,16 +1664,16 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1718,13 +1681,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>-55</v>
+        <v>-65</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Family League.xlsx
+++ b/Family League.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="40">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -58,37 +58,40 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>7 - 6 - 0</t>
-  </si>
-  <si>
-    <t>6 - 7 - 0</t>
-  </si>
-  <si>
-    <t>5 - 8 - 0</t>
-  </si>
-  <si>
-    <t>3 - 10 - 0</t>
-  </si>
-  <si>
-    <t>4 - 9 - 0</t>
-  </si>
-  <si>
-    <t>8 - 5 - 0</t>
-  </si>
-  <si>
-    <t>9 - 4 - 0</t>
-  </si>
-  <si>
-    <t>1 - 12 - 0</t>
-  </si>
-  <si>
-    <t>10 - 3 - 0</t>
-  </si>
-  <si>
-    <t>2 - 11 - 0</t>
-  </si>
-  <si>
-    <t>11 - 2 - 0</t>
+    <t>7 - 7 - 0</t>
+  </si>
+  <si>
+    <t>6 - 8 - 0</t>
+  </si>
+  <si>
+    <t>5 - 9 - 0</t>
+  </si>
+  <si>
+    <t>3 - 11 - 0</t>
+  </si>
+  <si>
+    <t>9 - 5 - 0</t>
+  </si>
+  <si>
+    <t>8 - 6 - 0</t>
+  </si>
+  <si>
+    <t>1 - 13 - 0</t>
+  </si>
+  <si>
+    <t>10 - 4 - 0</t>
+  </si>
+  <si>
+    <t>11 - 3 - 0</t>
+  </si>
+  <si>
+    <t>2 - 12 - 0</t>
+  </si>
+  <si>
+    <t>4 - 10 - 0</t>
+  </si>
+  <si>
+    <t>12 - 2 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -109,37 +112,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
 </sst>
 </file>
@@ -552,22 +549,22 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -576,7 +573,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -593,37 +590,37 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -634,10 +631,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -646,10 +643,10 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -675,37 +672,37 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -716,7 +713,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -725,10 +722,10 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -757,37 +754,37 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -798,16 +795,16 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
@@ -816,7 +813,7 @@
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -825,10 +822,10 @@
         <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -839,22 +836,22 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -863,13 +860,13 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -880,10 +877,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -892,10 +889,10 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -904,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
@@ -921,19 +918,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -945,7 +942,7 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -962,37 +959,37 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1000,40 +997,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1054,10 +1051,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1065,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.083333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1079,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1093,13 +1090,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1107,13 +1104,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>5.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1124,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1138,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>6.583333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1149,13 +1146,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>6.833333333333333</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1163,10 +1160,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6.833333333333333</v>
+        <v>7.75</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1177,13 +1174,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1194,10 +1191,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1205,13 +1202,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>7.416666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1222,10 +1219,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>8.083333333333334</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1246,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1263,13 +1260,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>8.666666666666666</v>
+        <v>9.5</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666661</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1277,16 +1274,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>7.75</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D3">
-        <v>-0.25</v>
+        <v>-0.3333333333333339</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1294,13 +1291,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>7.666666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D4">
-        <v>-0.333333333333333</v>
+        <v>0.3333333333333339</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1314,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1328,16 +1325,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>7.25</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D6">
-        <v>-1.75</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1345,16 +1342,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>6.833333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.166666666666667</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1362,16 +1359,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6.75</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.25</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1379,16 +1376,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>6.75</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D9">
-        <v>2.75</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1399,13 +1396,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6.666666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D10">
-        <v>-1.333333333333333</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1416,13 +1413,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>6.083333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D11">
-        <v>0.08333333333333304</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1433,13 +1430,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>4.083333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333304</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1477,13 +1474,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1494,13 +1491,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1511,10 +1508,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -1528,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1545,10 +1542,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1562,13 +1559,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1579,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1596,13 +1593,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1613,13 +1610,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1630,13 +1627,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1647,13 +1644,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1664,10 +1661,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-23</v>
+        <v>-29</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
@@ -1681,13 +1678,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>-65</v>
+        <v>-69</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
